--- a/front/設計書/画面図_データ更新画面.xlsx
+++ b/front/設計書/画面図_データ更新画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizut\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E3CF06-B47C-480F-853D-F2BD6DC217E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914A0C8-C714-4012-A81A-FBC2AF4002D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F8B2B40-BFA2-4A83-910A-D820DA629772}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="3">
@@ -226,95 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当月</t>
-    <rPh sb="0" eb="2">
-      <t>トウゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いじれない　read_only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出欠上体</t>
-    <rPh sb="0" eb="2">
-      <t>シュッケツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付指定のインプットフォームyyyy/mm 2桁になるように0で埋める　formタイプ指定で対応可能</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージを出すところ</t>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功/失敗MSG　実行前は空白</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新ボタン</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -434,41 +345,9 @@
   </si>
   <si>
     <t>社員番号</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2024/01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席状態</t>
-    <rPh sb="0" eb="2">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員番号</t>
     <rPh sb="0" eb="4">
       <t>シャインバンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -567,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,12 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,13 +699,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,15 +980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1127,7 +1003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="1143000"/>
+          <a:off x="704850" y="1133475"/>
           <a:ext cx="8902700" cy="3346450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1293,87 +1169,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09420DCF-7A9D-3391-E9AC-A95DA85B9C3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11668125" y="4848225"/>
-          <a:ext cx="533400" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>更新</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2348,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE9A82F-C92D-4F5C-ADF2-85CF832357DA}">
-  <dimension ref="B2:R48"/>
+  <dimension ref="B2:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2361,7 +2156,7 @@
     <col min="18" max="18" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2176,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -2399,7 +2194,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2417,118 +2212,98 @@
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" s="8"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="8"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
       <c r="O9" s="9"/>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="O10" s="9"/>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="O11" s="9"/>
-      <c r="Q11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="O12" s="9"/>
-      <c r="Q12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="O14" s="9"/>
-      <c r="R14" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="O17" s="9"/>
-      <c r="Q17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="Q18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="Q19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="10"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2544,7 +2319,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2337,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="13" t="s">
         <v>6</v>
       </c>
@@ -2586,7 +2361,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
@@ -2610,22 +2385,22 @@
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2634,22 +2409,22 @@
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2658,22 +2433,22 @@
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2682,22 +2457,22 @@
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="12" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -2706,22 +2481,22 @@
       <c r="N28" s="5"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -2730,7 +2505,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
@@ -2746,7 +2521,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5"/>
@@ -2762,7 +2537,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -2855,12 +2630,12 @@
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2878,7 +2653,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3053,9 +2828,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="R17" numberStoredAsText="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
